--- a/Chandrashekaran-annotations/AMSWA_Q4_2016.xlsx
+++ b/Chandrashekaran-annotations/AMSWA_Q4_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39DA353-1ADA-4B98-985A-C875DADB7EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD58561E-8E74-452B-A77F-A8E3184CD745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,8 +477,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +543,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -555,6 +575,24 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -569,6 +607,24 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -583,6 +639,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -597,6 +671,24 @@
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -611,6 +703,24 @@
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -625,6 +735,24 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -638,6 +766,24 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
